--- a/training/java/core/pack/casestudy2/Sample_Employee_WorkLogs.xlsx
+++ b/training/java/core/pack/casestudy2/Sample_Employee_WorkLogs.xlsx
@@ -959,23 +959,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -988,16 +971,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H401"/>
+  <dimension ref="A1:H403"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A379" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F403" activeCellId="0" sqref="F403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.43"/>
@@ -11430,11 +11413,13 @@
         <v>27</v>
       </c>
     </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="B1:B401"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
